--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +305,26 @@
   </si>
   <si>
     <t>53,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131,132,133,134,135,136,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131,132,133,134,135,136,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128,129,130,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,7 +397,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +408,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -422,7 +448,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -452,6 +478,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1007,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1019,9 +1053,10 @@
     <col min="5" max="5" width="64.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.25" customWidth="1"/>
     <col min="7" max="7" width="41.25" style="11" customWidth="1"/>
+    <col min="8" max="9" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1043,8 +1078,14 @@
       <c r="G1" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1061,7 +1102,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1078,7 +1119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1095,7 +1136,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1112,7 +1153,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1129,7 +1170,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1148,7 +1189,7 @@
       <c r="F7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1167,7 +1208,7 @@
       <c r="F8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1182,6 +1223,131 @@
       </c>
       <c r="E9" s="11" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="13">
+        <v>200</v>
+      </c>
+      <c r="D10" s="13">
+        <v>300</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="15">
+        <v>1618272000</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1618847999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="13">
+        <v>200</v>
+      </c>
+      <c r="D11" s="13">
+        <v>300</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="15">
+        <v>1618272000</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1618847999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="13">
+        <v>200</v>
+      </c>
+      <c r="D12" s="13">
+        <v>300</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="15">
+        <v>1618272000</v>
+      </c>
+      <c r="I12" s="15">
+        <v>1618847999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="13">
+        <v>200</v>
+      </c>
+      <c r="D13" s="13">
+        <v>300</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="15">
+        <v>1618272000</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1618847999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="13">
+        <v>2400</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2400</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="15">
+        <v>1618272000</v>
+      </c>
+      <c r="I14" s="15">
+        <v>1618847999</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +325,24 @@
   </si>
   <si>
     <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1619481600</t>
+  </si>
+  <si>
+    <t>1619481600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1620662399</t>
+  </si>
+  <si>
+    <t>1620662399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1620662399</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,7 +1062,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1243,11 +1261,11 @@
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="15">
-        <v>1618272000</v>
-      </c>
-      <c r="I10" s="15">
-        <v>1618847999</v>
+      <c r="H10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1268,11 +1286,11 @@
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="15">
-        <v>1618272000</v>
-      </c>
-      <c r="I11" s="15">
-        <v>1618847999</v>
+      <c r="H11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1293,11 +1311,11 @@
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="15">
-        <v>1618272000</v>
-      </c>
-      <c r="I12" s="15">
-        <v>1618847999</v>
+      <c r="H12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1318,11 +1336,11 @@
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="15">
-        <v>1618272000</v>
-      </c>
-      <c r="I13" s="15">
-        <v>1618847999</v>
+      <c r="H13" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1343,11 +1361,11 @@
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="15">
-        <v>1618272000</v>
-      </c>
-      <c r="I14" s="15">
-        <v>1618847999</v>
+      <c r="H14" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -210,10 +210,10 @@
     <t>131,132,133,134,135,136,</t>
   </si>
   <si>
-    <t>1621296000</t>
-  </si>
-  <si>
-    <t>1621871999</t>
+    <t>1621900800</t>
+  </si>
+  <si>
+    <t>1622476799</t>
   </si>
   <si>
     <t>128,129,130,</t>
@@ -224,12 +224,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,27 +251,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,14 +274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,30 +288,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -338,23 +296,28 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -369,9 +332,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,23 +356,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,9 +393,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,187 +421,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,8 +633,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,30 +655,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -703,21 +665,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,157 +688,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -913,14 +899,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1521,15 +1507,14 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="74.375" customWidth="1"/>
     <col min="5" max="5" width="64.375" customWidth="1"/>
-    <col min="6" max="6" width="41.25" customWidth="1"/>
-    <col min="7" max="7" width="41.25" customWidth="1"/>
+    <col min="6" max="7" width="41.25" customWidth="1"/>
     <col min="8" max="9" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="6" activeTab="13"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -210,10 +210,10 @@
     <t>131,132,133,134,135,136,</t>
   </si>
   <si>
-    <t>1621900800</t>
-  </si>
-  <si>
-    <t>1622476799</t>
+    <t>1622505600</t>
+  </si>
+  <si>
+    <t>1623081599</t>
   </si>
   <si>
     <t>128,129,130,</t>
@@ -224,9 +224,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -260,10 +260,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -274,7 +279,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,14 +287,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,24 +322,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,30 +339,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,7 +355,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,15 +384,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,181 +421,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,21 +635,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,6 +689,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -718,26 +727,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,138 +746,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1507,7 +1507,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>no</t>
   </si>
@@ -208,12 +208,6 @@
   </si>
   <si>
     <t>131,132,133,134,135,136,</t>
-  </si>
-  <si>
-    <t>1622505600</t>
-  </si>
-  <si>
-    <t>1623081599</t>
   </si>
   <si>
     <t>128,129,130,</t>
@@ -226,8 +220,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -251,35 +245,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,22 +265,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,9 +318,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,8 +356,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,17 +372,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,28 +387,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -421,49 +415,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,78 +583,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -554,48 +590,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,6 +628,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -654,22 +668,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,32 +721,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,138 +740,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -886,7 +880,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1507,7 +1501,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H10" sqref="H10:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1701,11 +1695,11 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>60</v>
+      <c r="H10" s="4">
+        <v>1623110400</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1623686399</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:9">
@@ -1726,11 +1720,11 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>60</v>
+      <c r="H11" s="4">
+        <v>1623110400</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1623686399</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:9">
@@ -1751,11 +1745,11 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>60</v>
+      <c r="H12" s="4">
+        <v>1623110400</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1623686399</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:9">
@@ -1776,11 +1770,11 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>60</v>
+      <c r="H13" s="4">
+        <v>1623110400</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1623686399</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:9">
@@ -1788,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3">
         <v>2400</v>
@@ -1801,11 +1795,11 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>60</v>
+      <c r="H14" s="4">
+        <v>1623110400</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1623686399</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>no</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>128,129,130,</t>
+  </si>
+  <si>
+    <t>137,</t>
   </si>
 </sst>
 </file>
@@ -218,9 +221,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -246,12 +249,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,31 +257,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,24 +292,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,9 +320,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,9 +337,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,7 +352,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,14 +396,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -415,19 +418,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,163 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,11 +627,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,13 +666,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,32 +696,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,32 +724,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,138 +743,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1498,10 +1501,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1696,10 +1699,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="I10" s="4">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:9">
@@ -1721,10 +1724,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="I11" s="4">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:9">
@@ -1746,10 +1749,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="I12" s="4">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:9">
@@ -1771,10 +1774,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="I13" s="4">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:9">
@@ -1796,10 +1799,35 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
-        <v>1623110400</v>
+        <v>1623167999</v>
       </c>
       <c r="I14" s="4">
-        <v>1623686399</v>
+        <v>1623254399</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4">
+        <v>1624320000</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1624895999</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -223,13 +223,20 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -249,23 +256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,63 +264,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,11 +277,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,11 +311,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,12 +374,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -418,37 +425,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,145 +599,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,60 +630,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,8 +663,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,22 +672,76 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,140 +750,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -886,13 +893,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -900,7 +910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
@@ -1238,28 +1248,28 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="67.5" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1305,10 +1315,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1354,10 +1364,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1411,10 +1421,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1460,10 +1470,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1503,8 +1513,8 @@
   <sheetPr/>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1699,10 +1709,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="I10" s="4">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:9">
@@ -1724,10 +1734,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="I11" s="4">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:9">
@@ -1749,10 +1759,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="I12" s="4">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:9">
@@ -1774,10 +1784,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="I13" s="4">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:9">
@@ -1799,10 +1809,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
-        <v>1623167999</v>
+        <v>1624924800</v>
       </c>
       <c r="I14" s="4">
-        <v>1623254399</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:9">
@@ -1823,11 +1833,11 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="4">
-        <v>1624320000</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1624895999</v>
+      <c r="H15" s="5">
+        <v>1623167999</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1623254399</v>
       </c>
     </row>
   </sheetData>
@@ -1848,206 +1858,206 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="13.125" style="9" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18" style="10" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="13.125" style="10" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="13">
         <v>15</v>
       </c>
-      <c r="D2" s="12">
-        <v>2</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="D2" s="13">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13">
         <v>5</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="10">
+      <c r="F2" s="13"/>
+      <c r="G2" s="11">
         <v>1569886200</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <v>1570456800</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>16</v>
       </c>
-      <c r="D3" s="9">
-        <v>2</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10">
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11">
         <v>1569886200</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <v>1570456800</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>17</v>
       </c>
-      <c r="D4" s="9">
-        <v>2</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
         <v>1200</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="13">
         <v>1559186972</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>2555555555</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C5">
         <v>21</v>
       </c>
-      <c r="D5" s="12">
-        <v>2</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10">
+      <c r="D5" s="13">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="11">
         <v>1569886200</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="11">
         <v>2555555555</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C6">
         <v>22</v>
       </c>
-      <c r="D6" s="12">
-        <v>2</v>
-      </c>
-      <c r="E6" s="12">
-        <v>2</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="D6" s="13">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11">
         <v>1569886200</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="11">
         <v>2555555555</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C7">
         <v>23</v>
       </c>
-      <c r="D7" s="12">
-        <v>2</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="D7" s="13">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
         <v>1569886200</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="11">
         <v>2555555555</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C8">
         <v>24</v>
       </c>
-      <c r="D8" s="12">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="D8" s="13">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
         <v>1569886200</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="11">
         <v>2555555555</v>
       </c>
     </row>
@@ -2069,14 +2079,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="27" spans="1:3">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" ht="27" spans="1:3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2108,17 +2118,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2252,112 +2262,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="6"/>
-    <col min="2" max="2" width="21.25" style="6" customWidth="1"/>
-    <col min="3" max="4" width="17.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10.75" style="6"/>
+    <col min="1" max="1" width="10.75" style="7"/>
+    <col min="2" max="2" width="21.25" style="7" customWidth="1"/>
+    <col min="3" max="4" width="17.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2371,37 +2381,37 @@
       <c r="B9"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="8"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="8"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="2:2">
       <c r="B21"/>
@@ -2472,17 +2482,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2630,62 +2640,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="10.75" style="6"/>
+    <col min="1" max="16384" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
         <v>99999</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>99999</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
         <v>99999</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>99999</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>99999</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>99999</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>3</v>
       </c>
     </row>
@@ -2707,10 +2717,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2772,10 +2782,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
     </row>

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
   <si>
     <t>no</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>137,</t>
+  </si>
+  <si>
+    <t>138,</t>
   </si>
 </sst>
 </file>
@@ -221,10 +224,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -263,7 +266,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,9 +331,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -290,27 +347,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -326,47 +376,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,17 +400,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,31 +428,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,19 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,127 +578,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,8 +666,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,8 +675,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,26 +696,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,17 +719,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,140 +753,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -896,6 +899,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1248,28 +1252,28 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="67.5" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1315,10 +1319,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1364,10 +1368,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1421,10 +1425,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1470,10 +1474,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1511,10 +1515,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1709,10 +1713,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="I10" s="4">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:9">
@@ -1734,10 +1738,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="I11" s="4">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:9">
@@ -1759,10 +1763,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="I12" s="4">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:9">
@@ -1784,10 +1788,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="I13" s="4">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:9">
@@ -1809,10 +1813,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="I14" s="4">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:9">
@@ -1839,6 +1843,31 @@
       <c r="I15" s="5">
         <v>1623254399</v>
       </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16">
+        <v>3000</v>
+      </c>
+      <c r="D16">
+        <v>3000</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="H16" s="5">
+        <v>1623167999</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1623254399</v>
+      </c>
+      <c r="J16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1858,206 +1887,206 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="13.125" style="10" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18" style="11" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="13.125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18" style="12" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="14">
         <v>15</v>
       </c>
-      <c r="D2" s="13">
-        <v>2</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="D2" s="14">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14">
         <v>5</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="11">
+      <c r="F2" s="14"/>
+      <c r="G2" s="12">
         <v>1569886200</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="12">
         <v>1570456800</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>16</v>
       </c>
-      <c r="D3" s="10">
-        <v>2</v>
-      </c>
-      <c r="E3" s="13">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11">
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12">
         <v>1569886200</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="12">
         <v>1570456800</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>17</v>
       </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14">
         <v>1200</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="14">
         <v>1559186972</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="12">
         <v>2555555555</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C5">
         <v>21</v>
       </c>
-      <c r="D5" s="13">
-        <v>2</v>
-      </c>
-      <c r="E5" s="13">
-        <v>2</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="11">
+      <c r="D5" s="14">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="12">
         <v>1569886200</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="12">
         <v>2555555555</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C6">
         <v>22</v>
       </c>
-      <c r="D6" s="13">
-        <v>2</v>
-      </c>
-      <c r="E6" s="13">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="D6" s="14">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12">
         <v>1569886200</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="12">
         <v>2555555555</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C7">
         <v>23</v>
       </c>
-      <c r="D7" s="13">
-        <v>2</v>
-      </c>
-      <c r="E7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="D7" s="14">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
         <v>1569886200</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="12">
         <v>2555555555</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C8">
         <v>24</v>
       </c>
-      <c r="D8" s="13">
-        <v>2</v>
-      </c>
-      <c r="E8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="D8" s="14">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
         <v>1569886200</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="12">
         <v>2555555555</v>
       </c>
     </row>
@@ -2079,14 +2108,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="27" spans="1:3">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="27" spans="1:3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2118,17 +2147,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2262,112 +2291,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="7"/>
-    <col min="2" max="2" width="21.25" style="7" customWidth="1"/>
-    <col min="3" max="4" width="17.875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="10.75" style="7"/>
+    <col min="1" max="1" width="10.75" style="8"/>
+    <col min="2" max="2" width="21.25" style="8" customWidth="1"/>
+    <col min="3" max="4" width="17.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="10.75" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2381,37 +2410,37 @@
       <c r="B9"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="9"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="9"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="9"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="9"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="9"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="9"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="9"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="9"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="9"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="2:2">
       <c r="B21"/>
@@ -2482,17 +2511,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2640,62 +2669,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="10.75" style="7"/>
+    <col min="1" max="16384" width="10.75" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
         <v>99999</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>99999</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
         <v>99999</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>99999</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>99999</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>99999</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>3</v>
       </c>
     </row>
@@ -2717,10 +2746,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2782,10 +2811,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
     </row>

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -222,14 +227,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +239,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -261,14 +267,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,137 +276,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,194 +301,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -636,257 +325,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -900,86 +347,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="常规 4 2" xfId="4"/>
     <cellStyle name="常规 4 2 2" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
-    <cellStyle name="常规 4 2" xfId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1237,47 +643,47 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="67.5" spans="1:8">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1301,32 +707,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1334,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1342,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1351,31 +756,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1383,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1391,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1399,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1408,31 +812,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1440,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1448,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1457,31 +860,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1489,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1497,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1506,22 +908,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="74.375" customWidth="1"/>
     <col min="5" max="5" width="64.375" customWidth="1"/>
@@ -1529,7 +930,7 @@
     <col min="8" max="9" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1575,7 +976,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1592,7 +993,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1609,7 +1010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1626,7 +1027,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1643,7 +1044,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1660,7 +1061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1677,7 +1078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1694,7 +1095,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:9">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1719,7 +1120,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:9">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1744,7 +1145,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:9">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1769,7 +1170,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:9">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1794,7 +1195,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:9">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1819,7 +1220,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:9">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1844,7 +1245,7 @@
         <v>1623254399</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1861,265 +1262,263 @@
         <v>50</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="H16" s="5">
-        <v>1623167999</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1623254399</v>
+      <c r="H16" s="7">
+        <v>1941617584</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2572819200</v>
       </c>
       <c r="J16" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="13.125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18" style="12" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="11" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="13.125" style="12" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18" style="13" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>15</v>
       </c>
-      <c r="D2" s="14">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="D2" s="15">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15">
         <v>5</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="12">
+      <c r="F2" s="15"/>
+      <c r="G2" s="13">
         <v>1569886200</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="13">
         <v>1570456800</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>16</v>
       </c>
-      <c r="D3" s="11">
-        <v>2</v>
-      </c>
-      <c r="E3" s="14">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12">
+      <c r="D3" s="12">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13">
         <v>1569886200</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="13">
         <v>1570456800</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="11">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="12">
         <v>17</v>
       </c>
-      <c r="D4" s="11">
-        <v>2</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
         <v>1200</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="15">
         <v>1559186972</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="13">
         <v>2555555555</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="11">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C5">
         <v>21</v>
       </c>
-      <c r="D5" s="14">
-        <v>2</v>
-      </c>
-      <c r="E5" s="14">
-        <v>2</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="12">
+      <c r="D5" s="15">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13">
         <v>1569886200</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="13">
         <v>2555555555</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="11">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C6">
         <v>22</v>
       </c>
-      <c r="D6" s="14">
-        <v>2</v>
-      </c>
-      <c r="E6" s="14">
-        <v>2</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="D6" s="15">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2</v>
+      </c>
+      <c r="G6" s="13">
         <v>1569886200</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="13">
         <v>2555555555</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="11">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C7">
         <v>23</v>
       </c>
-      <c r="D7" s="14">
-        <v>2</v>
-      </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="D7" s="15">
+        <v>2</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13">
         <v>1569886200</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="13">
         <v>2555555555</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="11">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C8">
         <v>24</v>
       </c>
-      <c r="D8" s="14">
-        <v>2</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
         <v>1569886200</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="13">
         <v>2555555555</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="27" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2131,37 +1530,36 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2175,7 +1573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2189,7 +1587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2203,7 +1601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2217,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2231,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2245,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2259,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2274,258 +1672,256 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="8"/>
-    <col min="2" max="2" width="21.25" style="8" customWidth="1"/>
-    <col min="3" max="4" width="17.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="10.75" style="8"/>
+    <col min="1" max="1" width="10.75" style="9"/>
+    <col min="2" max="2" width="21.25" style="9" customWidth="1"/>
+    <col min="3" max="4" width="17.875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A4" s="8">
+    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7"/>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9"/>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="10"/>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="2:2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2539,7 +1935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2553,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2567,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2581,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2595,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2609,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2623,7 +2019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2637,7 +2033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2652,108 +2048,106 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.75" style="8"/>
+    <col min="1" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
         <v>99999</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>99999</v>
       </c>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
         <v>99999</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>99999</v>
       </c>
-      <c r="D3" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8">
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>99999</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>99999</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2761,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2769,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2777,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2785,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2794,31 +2188,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="A28:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2826,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2834,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2843,7 +2236,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -265,15 +265,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -328,10 +328,10 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -360,14 +360,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1114,10 +1114,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="I10" s="4">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1139,10 +1139,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="I11" s="4">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1164,10 +1164,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="I12" s="4">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1189,10 +1189,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="I13" s="4">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1214,10 +1214,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="I14" s="4">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -919,7 +919,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1114,10 +1114,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="I10" s="4">
-        <v>1627315199</v>
+        <v>1627919999</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1139,10 +1139,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="I11" s="4">
-        <v>1627315199</v>
+        <v>1627919999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1164,10 +1164,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="I12" s="4">
-        <v>1627315199</v>
+        <v>1627919999</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1189,10 +1189,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="I13" s="4">
-        <v>1627315199</v>
+        <v>1627919999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1214,10 +1214,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="I14" s="4">
-        <v>1627315199</v>
+        <v>1627919999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1273,7 +1273,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="62">
   <si>
     <t>no</t>
   </si>
@@ -919,7 +919,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1114,10 +1114,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="I10" s="4">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1139,10 +1139,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="I11" s="4">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1164,10 +1164,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="I12" s="4">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1189,10 +1189,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="I13" s="4">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
   <si>
     <t>no</t>
   </si>
@@ -240,6 +240,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -247,6 +248,7 @@
       <sz val="11"/>
       <color theme="4"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -254,30 +256,35 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -919,7 +926,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H10" sqref="H10:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1114,10 +1121,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="I10" s="4">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1139,10 +1146,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="I11" s="4">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1164,10 +1171,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="I12" s="4">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1189,10 +1196,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="I13" s="4">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1214,10 +1221,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
-        <v>1627344000</v>
+        <v>1628553600</v>
       </c>
       <c r="I14" s="4">
-        <v>1627919999</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1121,10 +1121,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="I10" s="4">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1146,10 +1146,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="I11" s="4">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1171,10 +1171,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="I12" s="4">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1196,10 +1196,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="I13" s="4">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1221,10 +1221,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="I14" s="4">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1121,10 +1121,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="I10" s="4">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1146,10 +1146,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="I11" s="4">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1171,10 +1171,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="I12" s="4">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1196,10 +1196,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="I13" s="4">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1221,10 +1221,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="I14" s="4">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1121,10 +1121,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="I10" s="4">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1146,10 +1146,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="I11" s="4">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1171,10 +1171,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="I12" s="4">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1196,10 +1196,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="I13" s="4">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1221,10 +1221,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="I14" s="4">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1121,10 +1121,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="I10" s="4">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1146,10 +1146,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="I11" s="4">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1171,10 +1171,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="I12" s="4">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1196,10 +1196,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="I13" s="4">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1221,10 +1221,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="I14" s="4">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1121,10 +1121,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="I10" s="4">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1146,10 +1146,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="I11" s="4">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1171,10 +1171,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="I12" s="4">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1196,10 +1196,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="I13" s="4">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1221,10 +1221,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="I14" s="4">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1121,10 +1121,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="I10" s="4">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1146,10 +1146,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="I11" s="4">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1171,10 +1171,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="I12" s="4">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1196,10 +1196,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="I13" s="4">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1221,10 +1221,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="I14" s="4">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1121,10 +1121,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="I10" s="4">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1146,10 +1146,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="I11" s="4">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1171,10 +1171,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="I12" s="4">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1196,10 +1196,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="I13" s="4">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1221,10 +1221,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="I14" s="4">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -925,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10:I14"/>
     </sheetView>
   </sheetViews>
@@ -1121,10 +1121,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="I10" s="4">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1146,10 +1146,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="I11" s="4">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1171,10 +1171,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="I12" s="4">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1196,10 +1196,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="I13" s="4">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1221,10 +1221,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="I14" s="4">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.28\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1121,10 +1121,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="I10" s="4">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1146,10 +1146,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="I11" s="4">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1171,10 +1171,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="I12" s="4">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1196,10 +1196,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="I13" s="4">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1221,10 +1221,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="I14" s="4">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1121,10 +1121,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="I10" s="4">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1146,10 +1146,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="I11" s="4">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1171,10 +1171,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="I12" s="4">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1196,10 +1196,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="I13" s="4">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1221,10 +1221,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="I14" s="4">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_boss_yutu_random_2.xlsx
+++ b/config_Release/fish_boss_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1121,10 +1121,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="I10" s="4">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1146,10 +1146,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="I11" s="4">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1171,10 +1171,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="I12" s="4">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1196,10 +1196,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="I13" s="4">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1221,10 +1221,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="I14" s="4">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
